--- a/biology/Médecine/Ernst_Fleischl_von_Marxow/Ernst_Fleischl_von_Marxow.xlsx
+++ b/biology/Médecine/Ernst_Fleischl_von_Marxow/Ernst_Fleischl_von_Marxow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst von Fleischl-Marxow, ou Ernst Fleischl von Marxow, né le (5 août 1846 à Vienne et mort le 22 octobre 1891 dans la même ville, est un physiologiste et médecin autrichien qui a fait d'importantes expériences et découvertes dans le domaine de l'activité électrique des nerfs et du cerveau. Il a également inventé des appareils destinés à la médecine et à l'investigation biologique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marxow fait ses études de médecine à l'université de Vienne. Il est assistant de laboratoire d'Ernst Wilhelm von Brücke, puis du pathologiste Carl Freiherr von Rokitansky. Marxow se blesse en disséquant un corps et doit être amputé d'un pouce, ce qui met fin à son activité dans le champ de la pathologie. Il revient travailler au laboratoire d'Ernst von Brücke, pendant un an, aux côtés de Carl Ludwig, à l'université de Leipzig, où il obtient son diplôme de médecine en 1874.
 Dans la première partie de sa carrière de neurophysiologiste, Marxow se consacra à des recherches dans l'électrophysiologie des nerfs et des muscles, suivant celles d'Emil du Bois-Reymond (1818–1896), qui avait alors découvert le potentiel d'actions des axones. Marxow inventa plusieurs appareils de mesure, dont le reonome, un genre de rhéostat utilisé pour contrôler l'intensité du stimulus électrique. Il adapta également l'électromètre capillaire de Gabriel Lippmann.
